--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr4_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr4_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Row</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -181,12 +247,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
-    <col min="3" max="3" width="14.64453125" customWidth="true"/>
+    <col min="3" max="3" width="13.64453125" customWidth="true"/>
     <col min="4" max="4" width="14.64453125" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="15.64453125" customWidth="true"/>
@@ -199,45 +265,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0">
-        <v>0.31111159226766794</v>
+        <v>0.31077364047268452</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -269,317 +335,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>0.32118459780078074</v>
+        <v>0.32091710094105313</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.01361236288241882</v>
+        <v>0.013682753075029704</v>
       </c>
       <c r="E3" s="0">
-        <v>-6.2646529835900776e-05</v>
+        <v>-6.4140932896371704e-05</v>
       </c>
       <c r="F3" s="0">
-        <v>0.00012385360360091772</v>
+        <v>0.00012100125112318315</v>
       </c>
       <c r="G3" s="0">
-        <v>-0.0014711516281900299</v>
+        <v>-0.0014688112708001746</v>
       </c>
       <c r="H3" s="0">
-        <v>8.2955692851457347e-06</v>
+        <v>8.3431507951623215e-06</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.0021431011634504833</v>
+        <v>-0.0021410767671921791</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>5.3927992843538775e-06</v>
+        <v>5.3919623093090507e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>0.29953587105306545</v>
+        <v>0.29737977131954985</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.010129106829851242</v>
+        <v>-0.012016104802842924</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-2.1158751037949937e-06</v>
+        <v>-2.1131415580529128e-06</v>
       </c>
       <c r="F4" s="0">
-        <v>-9.6100094004873619e-05</v>
+        <v>-9.6168523703248551e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-0.00037876319598603231</v>
+        <v>-0.0003780612378036379</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.010876375300221093</v>
+        <v>-0.010878733220459357</v>
       </c>
       <c r="J4" s="0">
-        <v>-6.9907858150008859e-06</v>
+        <v>-6.8769673466945733e-06</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.00015927466673326673</v>
+        <v>-0.00015927172778934517</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>0.30778509465516035</v>
+        <v>0.30791636126656974</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0098569344036263558</v>
+        <v>0.012131867737946849</v>
       </c>
       <c r="D5" s="0">
-        <v>0.0015364532612988768</v>
+        <v>0.00153680994914247</v>
       </c>
       <c r="E5" s="0">
-        <v>0.00048059721005134527</v>
+        <v>0.00048346673578460376</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0010961614992226068</v>
+        <v>0.0011053708024402853</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.00345341089698956</v>
+        <v>-0.0034552805645170579</v>
       </c>
       <c r="H5" s="0">
-        <v>-3.7469942632374531e-05</v>
+        <v>-3.7406552751864869e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.0012501859613359243</v>
+        <v>-0.0012483723069606613</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>2.0144028853585905e-05</v>
+        <v>2.0134145935268855e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>0.54553442346303105</v>
+        <v>0.54687746965970141</v>
       </c>
       <c r="C6" s="0">
-        <v>0.26838521093393913</v>
+        <v>0.26970846217874367</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>4.3059435285366693e-05</v>
+        <v>4.3057112836389224e-05</v>
       </c>
       <c r="F6" s="0">
-        <v>0.000603522338856587</v>
+        <v>0.0006015266857540124</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.00059724631306585791</v>
+        <v>0.00060101294711515914</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.03187861678922449</v>
+        <v>-0.031991819732088041</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-1.0934240517457283e-06</v>
+        <v>-1.1307992294762315e-06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>0.47023597595563366</v>
+        <v>0.47085260283510488</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.071924538331877272</v>
+        <v>-0.072651055393523775</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.00073383538109438864</v>
+        <v>-0.00072802330205065885</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0022404962757187189</v>
+        <v>-0.0022433183381335999</v>
       </c>
       <c r="G7" s="0">
-        <v>0.0014084139502892072</v>
+        <v>0.0014071630478621261</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.0018966815488332335</v>
+        <v>-0.0018983354460838425</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>8.8690079837028257e-05</v>
+        <v>8.8702607333179806e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>0.25481859099251752</v>
+        <v>0.25747762275746039</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.20105683206196973</v>
+        <v>-0.19918712762615351</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>5.9405953426139353e-05</v>
+        <v>5.9422234286205231e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.0033331139643564558</v>
+        <v>-0.0033334165221640859</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>5.9575745317070706e-05</v>
+        <v>5.9598380871088805e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.016112479824312232</v>
+        <v>-0.01593952700965004</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.0049660591887790706</v>
+        <v>0.0049660704651658394</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>0.11294808775117787</v>
+        <v>0.11395250605738472</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.082049346182792943</v>
+        <v>-0.083415544321635809</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.011085581097659015</v>
+        <v>-0.011118059521907272</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.038162447862267898</v>
+        <v>-0.038362232012900552</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.0047936169116514779</v>
+        <v>-0.004838186761251119</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.00072321697659673756</v>
+        <v>-0.00073358988457591576</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.0052253090675515694</v>
+        <v>-0.005226539054846829</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.00016901485717996101</v>
+        <v>0.00016903485704183874</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>0.2496115217239879</v>
+        <v>0.25729628516829306</v>
       </c>
       <c r="C10" s="0">
-        <v>0.19148358857880332</v>
+        <v>0.19828324712283693</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.00024676463422950356</v>
+        <v>-0.00024675495914487752</v>
       </c>
       <c r="F10" s="0">
-        <v>0.00059051141141668148</v>
+        <v>0.00059181778233489708</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.0001588605125710142</v>
+        <v>-0.00015873548122797659</v>
       </c>
       <c r="I10" s="0">
-        <v>0.020235982638104586</v>
+        <v>0.020084466705180985</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.084847818695183069</v>
+        <v>-0.08481705212990534</v>
       </c>
       <c r="K10" s="0">
-        <v>0.0096067951864690082</v>
+        <v>0.0096067900708337317</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>0.3787982687143906</v>
+        <v>0.38505604233057639</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.13723793836206488</v>
+        <v>0.13571624662590864</v>
       </c>
       <c r="E11" s="0">
-        <v>0.0072016041312001448</v>
+        <v>0.0072024128350456334</v>
       </c>
       <c r="F11" s="0">
-        <v>0.038337317583641693</v>
+        <v>0.038391868435468018</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.0090694197978060873</v>
+        <v>-0.0090969887699151267</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.00080508740162736517</v>
+        <v>-0.00079767802731303141</v>
       </c>
       <c r="I11" s="0">
-        <v>0.023879773677519821</v>
+        <v>0.023939251193288481</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.067595379564590385</v>
+        <v>-0.067595355130199292</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.27005791980249205</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.043006725862915748</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0.0006872977750492931</v>
+      </c>
+      <c r="F12" s="0">
+        <v>-0.00052346557173777418</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>-0.0010735920216827369</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-0.02726299282774089</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>-0.043818644019056496</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr4_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr4_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -172,6 +172,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -247,63 +388,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
-    <col min="3" max="3" width="13.64453125" customWidth="true"/>
+    <col min="3" max="3" width="14.24609375" customWidth="true"/>
     <col min="4" max="4" width="14.64453125" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
-    <col min="6" max="6" width="15.64453125" customWidth="true"/>
+    <col min="6" max="6" width="15.77734375" customWidth="true"/>
     <col min="7" max="7" width="15.24609375" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
     <col min="9" max="9" width="15.24609375" customWidth="true"/>
     <col min="10" max="10" width="15.77734375" customWidth="true"/>
-    <col min="11" max="11" width="16.24609375" customWidth="true"/>
+    <col min="11" max="11" width="15.77734375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="0">
-        <v>0.31077364047268452</v>
+        <v>0.31055037739279973</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -335,352 +476,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0">
-        <v>0.32091710094105313</v>
+        <v>0.32076934274455499</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.013682753075029704</v>
+        <v>0.013743534874983499</v>
       </c>
       <c r="E3" s="0">
-        <v>-6.4140932896371704e-05</v>
+        <v>-6.3481416619531311e-05</v>
       </c>
       <c r="F3" s="0">
-        <v>0.00012100125112318315</v>
+        <v>0.00012296620921709654</v>
       </c>
       <c r="G3" s="0">
-        <v>-0.0014688112708001746</v>
+        <v>-0.0014651692740812834</v>
       </c>
       <c r="H3" s="0">
-        <v>8.3431507951623215e-06</v>
+        <v>8.309187009846317e-06</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.0021410767671921791</v>
+        <v>-0.0021325849238324258</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>5.3919623093090507e-06</v>
+        <v>5.3906950780446827e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0">
-        <v>0.29737977131954985</v>
+        <v>0.29776358075026155</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.012016104802842924</v>
+        <v>-0.011470502551088963</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-2.1131415580529128e-06</v>
+        <v>-2.1129469336806033e-06</v>
       </c>
       <c r="F4" s="0">
-        <v>-9.6168523703248551e-05</v>
+        <v>-9.5924936832129639e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-0.0003780612378036379</v>
+        <v>-0.00037536234280376288</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.010878733220459357</v>
+        <v>-0.010895668270238534</v>
       </c>
       <c r="J4" s="0">
-        <v>-6.8769673466945733e-06</v>
+        <v>-6.8755783940607094e-06</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.00015927172778934517</v>
+        <v>-0.00015931536800228852</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0">
-        <v>0.30791636126656974</v>
+        <v>0.30669317490370412</v>
       </c>
       <c r="C5" s="0">
-        <v>0.012131867737946849</v>
+        <v>0.010554193048108222</v>
       </c>
       <c r="D5" s="0">
-        <v>0.00153680994914247</v>
+        <v>0.0015313600951774226</v>
       </c>
       <c r="E5" s="0">
-        <v>0.00048346673578460376</v>
+        <v>0.00048155376539684564</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0011053708024402853</v>
+        <v>0.0011007792223423323</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.0034552805645170579</v>
+        <v>-0.00347395222742809</v>
       </c>
       <c r="H5" s="0">
-        <v>-3.7406552751864869e-05</v>
+        <v>-3.7446923039412218e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.0012483723069606613</v>
+        <v>-0.0012470369407657095</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>2.0134145935268855e-05</v>
+        <v>2.0144113650977236e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0">
-        <v>0.54687746965970141</v>
+        <v>0.54844808488294094</v>
       </c>
       <c r="C6" s="0">
-        <v>0.26970846217874367</v>
+        <v>0.27248590844936771</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>4.3057112836389224e-05</v>
+        <v>4.3058360659405383e-05</v>
       </c>
       <c r="F6" s="0">
-        <v>0.0006015266857540124</v>
+        <v>0.00059768782735605222</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.00060101294711515914</v>
+        <v>0.00060074726693796305</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.031991819732088041</v>
+        <v>-0.031971344550647859</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-1.1307992294762315e-06</v>
+        <v>-1.1473744365164684e-06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0">
-        <v>0.47085260283510488</v>
+        <v>0.4724858107003147</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.072651055393523775</v>
+        <v>-0.072622138600952582</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.00072802330205065885</v>
+        <v>-0.00071841949559559102</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0022433183381335999</v>
+        <v>-0.0022399305635025092</v>
       </c>
       <c r="G7" s="0">
-        <v>0.0014071630478621261</v>
+        <v>0.0014245598029592626</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.0018983354460838425</v>
+        <v>-0.001895046343826751</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>8.8702607333179806e-05</v>
+        <v>8.8701018291947875e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0">
-        <v>0.25747762275746039</v>
+        <v>0.24736818118214488</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.19918712762615351</v>
+        <v>-0.21105604965747921</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>5.9422234286205231e-05</v>
+        <v>5.9475723505283363e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.0033334165221640859</v>
+        <v>-0.0033379736322703309</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>5.9598380871088805e-05</v>
+        <v>5.9763130035622471e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.01593952700965004</v>
+        <v>-0.015808985799888885</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.0049660704651658394</v>
+        <v>0.0049661407179276695</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0">
-        <v>0.11395250605738472</v>
+        <v>0.10523999221177871</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.083415544321635809</v>
+        <v>-0.081985764230055089</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.011118059521907272</v>
+        <v>-0.011154949189027884</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.038362232012900552</v>
+        <v>-0.038416495059810568</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.004838186761251119</v>
+        <v>-0.0047710031597061903</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.00073358988457591576</v>
+        <v>-0.00073698646749538542</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.005226539054846829</v>
+        <v>-0.0052319868172288472</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.00016903485704183874</v>
+        <v>0.00016899595295780112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0">
-        <v>0.25729628516829306</v>
+        <v>0.2488083314090242</v>
       </c>
       <c r="C10" s="0">
-        <v>0.19828324712283693</v>
+        <v>0.19764791701528689</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.00024675495914487752</v>
+        <v>-0.00024692990420582003</v>
       </c>
       <c r="F10" s="0">
-        <v>0.00059181778233489708</v>
+        <v>0.00060041635753326048</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.00015873548122797659</v>
+        <v>-0.00015848401569195321</v>
       </c>
       <c r="I10" s="0">
-        <v>0.020084466705180985</v>
+        <v>0.020266034240403741</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.08481705212990534</v>
+        <v>-0.084147376915157709</v>
       </c>
       <c r="K10" s="0">
-        <v>0.0096067900708337317</v>
+        <v>0.0096067624190770695</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0">
-        <v>0.38505604233057639</v>
+        <v>0.3808741369898469</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.13571624662590864</v>
+        <v>0.13873627787438692</v>
       </c>
       <c r="E11" s="0">
-        <v>0.0072024128350456334</v>
+        <v>0.0074050484309563609</v>
       </c>
       <c r="F11" s="0">
-        <v>0.038391868435468018</v>
+        <v>0.03899092991234137</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.0090969887699151267</v>
+        <v>-0.0090510680731101818</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.00079767802731303141</v>
+        <v>-0.00077240237973956504</v>
       </c>
       <c r="I11" s="0">
-        <v>0.023939251193288481</v>
+        <v>0.024352357177061208</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.067595355130199292</v>
+        <v>-0.067595337361073399</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0">
-        <v>0.27005791980249205</v>
+        <v>0.22305509941667562</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.043006725862915748</v>
+        <v>-0.064773040685771402</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>0.0006872977750492931</v>
+        <v>0.00069109326948962315</v>
       </c>
       <c r="F12" s="0">
-        <v>-0.00052346557173777418</v>
+        <v>-0.011596126355207438</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>-0.0010735920216827369</v>
+        <v>-0.0092475110576952374</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.02726299282774089</v>
+        <v>-0.029156586221989824</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.043818644019056496</v>
+        <v>-0.043736866521996987</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.24230218127105155</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.19835313248962794</v>
+      </c>
+      <c r="E13" s="0">
+        <v>-0.037016613485564419</v>
+      </c>
+      <c r="F13" s="0">
+        <v>-0.046955478291587215</v>
+      </c>
+      <c r="G13" s="0">
+        <v>-0.0017152809693341525</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0.00082915525760200151</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0.00431050258565366</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>0.29814792924723393</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.14604166367505589</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.05207066605267377</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>-0.00066879826515584028</v>
+      </c>
+      <c r="F14" s="0">
+        <v>-0.00071926100008829288</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0.00087572516462740562</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.043619521821189347</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>-5.7995621515816165e-05</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr4_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr4_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -388,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -406,42 +481,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0">
         <v>0.31055037739279973</v>
@@ -476,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0">
         <v>0.32076934274455499</v>
@@ -511,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0">
         <v>0.29776358075026155</v>
@@ -546,7 +621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0">
         <v>0.30669317490370412</v>
@@ -581,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0">
         <v>0.54844808488294094</v>
@@ -616,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0">
         <v>0.4724858107003147</v>
@@ -651,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0">
         <v>0.24736818118214488</v>
@@ -686,7 +761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0">
         <v>0.10523999221177871</v>
@@ -721,7 +796,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0">
         <v>0.2488083314090242</v>
@@ -756,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0">
         <v>0.3808741369898469</v>
@@ -791,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0">
         <v>0.22305509941667562</v>
@@ -826,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0">
         <v>0.24230218127105155</v>
@@ -861,37 +936,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0">
-        <v>0.14604166367505589</v>
+        <v>0.15708474816640527</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.05207066605267377</v>
+        <v>-0.033519737141774822</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.00066879826515584028</v>
+        <v>-0.00068361221045058122</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.00071926100008829288</v>
+        <v>0.00022524880238984244</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>0.00087572516462740562</v>
+        <v>-0.0045607578939162946</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.043619521821189347</v>
+        <v>-0.034767863763463101</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>-5.7995621515816165e-05</v>
+        <v>-0.011910710897431315</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>-0.31969198695842588</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.42831195483710249</v>
+      </c>
+      <c r="E15" s="0">
+        <v>0.0072818160297358258</v>
+      </c>
+      <c r="F15" s="0">
+        <v>0.024462530054211801</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.0015795148942349656</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>-0.081788641265911233</v>
       </c>
     </row>
   </sheetData>
